--- a/employees.xlsx
+++ b/employees.xlsx
@@ -24962,7 +24962,7 @@
         <v>Balwinder Kumar Dharam Pal</v>
       </c>
       <c r="C2233" t="str">
-        <v/>
+        <v>971564592284</v>
       </c>
     </row>
     <row r="2234">

--- a/employees.xlsx
+++ b/employees.xlsx
@@ -29373,7 +29373,7 @@
         <v>Likhin Babu Surendra Babu Kanaka</v>
       </c>
       <c r="C2634" t="str">
-        <v/>
+        <v>919526166212</v>
       </c>
     </row>
     <row r="2635">
